--- a/oscars_2024/tables.xlsx
+++ b/oscars_2024/tables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikesaint-antoine/Desktop/oscars_project2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikesaint-antoine/Desktop/oscars_project_FINAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6753BA-0715-B54B-B0A1-130FA7B8771C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A0C716-67A4-3B4D-B0BC-DC8FC8D1DCED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25440" windowHeight="14040" xr2:uid="{89436076-3543-874C-ACA1-F2ECD7C670FA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="16">
   <si>
     <t>Count</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>DraftKings</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -325,12 +328,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -340,10 +341,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,6 +362,319 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>369131</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>37151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{654266B6-3428-7B40-932A-68A205510075}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6943458" y="15667290"/>
+          <a:ext cx="5461000" cy="2019300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>369131</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>37151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{172E3FC0-A18E-9948-B070-12ED914EB086}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6943458" y="12664393"/>
+          <a:ext cx="5461000" cy="2019300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>369131</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>37150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C7925EB-4E93-4945-8FA9-9ACA3E7B3DDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6943458" y="9661495"/>
+          <a:ext cx="5461000" cy="2019300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>369131</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>37150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C658C60B-4C70-B342-9B2B-17EEA5CDB385}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6943458" y="6658598"/>
+          <a:ext cx="5461000" cy="2019300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>118336</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>18753</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C1344D1-303E-D549-95E1-81AA09F77506}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11204486" y="4059252"/>
+          <a:ext cx="3441700" cy="1193800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>118336</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>18753</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C71467-E193-C140-B9D9-8DD6B787720F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11204486" y="2267009"/>
+          <a:ext cx="3441700" cy="1193800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>118336</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>24332</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01E77316-EAFE-C840-A401-A43EF5251E8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11204486" y="213645"/>
+          <a:ext cx="3441700" cy="1460500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -660,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA51ED31-82AE-BA4B-9FB3-A8EA05BFB496}">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="107" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -678,84 +994,104 @@
   <sheetData>
     <row r="1" spans="8:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="8:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="22"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="8:9" ht="21" x14ac:dyDescent="0.25">
       <c r="H3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="4" spans="8:9" ht="21" x14ac:dyDescent="0.25">
       <c r="H4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="4">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="5" spans="8:9" ht="21" x14ac:dyDescent="0.25">
       <c r="H5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3">
+        <v>0.123</v>
+      </c>
     </row>
     <row r="6" spans="8:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="27"/>
+      <c r="I6" s="22">
+        <v>0.121</v>
+      </c>
     </row>
     <row r="9" spans="8:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="8:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="22"/>
+      <c r="I10" s="27"/>
     </row>
     <row r="11" spans="8:9" ht="21" x14ac:dyDescent="0.25">
       <c r="H11" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="3"/>
+      <c r="I11" s="3">
+        <v>0.127</v>
+      </c>
     </row>
     <row r="12" spans="8:9" ht="21" x14ac:dyDescent="0.25">
       <c r="H12" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="4"/>
+      <c r="I12" s="4">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="13" spans="8:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H13" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="17"/>
+      <c r="I13" s="17">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="16" spans="8:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="22"/>
+      <c r="I17" s="27"/>
     </row>
     <row r="18" spans="2:9" ht="21" x14ac:dyDescent="0.25">
       <c r="H18" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="3"/>
+      <c r="I18" s="3">
+        <v>9.4E-2</v>
+      </c>
     </row>
     <row r="19" spans="2:9" ht="21" x14ac:dyDescent="0.25">
       <c r="H19" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="4"/>
+      <c r="I19" s="4">
+        <v>9.1999999999999998E-2</v>
+      </c>
     </row>
     <row r="20" spans="2:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H20" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="17"/>
+      <c r="I20" s="17">
+        <v>9.0999999999999998E-2</v>
+      </c>
     </row>
     <row r="27" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:9" ht="31" x14ac:dyDescent="0.35">
@@ -791,9 +1127,15 @@
       <c r="C30" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="3"/>
+      <c r="D30" s="2">
+        <v>33</v>
+      </c>
+      <c r="E30" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="2:9" ht="21" x14ac:dyDescent="0.25">
       <c r="B31" s="12">
@@ -802,9 +1144,15 @@
       <c r="C31" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="13"/>
+      <c r="D31" s="1">
+        <v>6</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0.317</v>
+      </c>
+      <c r="F31" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="32" spans="2:9" ht="21" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
@@ -813,9 +1161,15 @@
       <c r="C32" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="3"/>
+      <c r="D32" s="2">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.55600000000000005</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
@@ -824,9 +1178,15 @@
       <c r="C33" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="4"/>
+      <c r="D33" s="1">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.33300000000000002</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
@@ -836,9 +1196,15 @@
       <c r="C34" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="17"/>
+      <c r="D34" s="16">
+        <v>6</v>
+      </c>
+      <c r="E34" s="16">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="F34" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:6" ht="31" x14ac:dyDescent="0.35">
@@ -874,9 +1240,15 @@
       <c r="C42" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="3"/>
+      <c r="D42" s="2">
+        <v>15</v>
+      </c>
+      <c r="E42" s="2">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="B43" s="12">
@@ -885,9 +1257,15 @@
       <c r="C43" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="13"/>
+      <c r="D43" s="1">
+        <v>7</v>
+      </c>
+      <c r="E43" s="8">
+        <v>0.314</v>
+      </c>
+      <c r="F43" s="13">
+        <v>0.42899999999999999</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
@@ -896,9 +1274,15 @@
       <c r="C44" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="3"/>
+      <c r="D44" s="2">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="B45" s="12">
@@ -907,9 +1291,15 @@
       <c r="C45" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="4"/>
+      <c r="D45" s="1">
+        <v>7</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0.57099999999999995</v>
+      </c>
     </row>
     <row r="46" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
@@ -919,9 +1309,15 @@
       <c r="C46" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="17"/>
+      <c r="D46" s="16">
+        <v>6</v>
+      </c>
+      <c r="E46" s="16">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="F46" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:6" ht="31" x14ac:dyDescent="0.35">
@@ -957,9 +1353,15 @@
       <c r="C54" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="3"/>
+      <c r="D54" s="2">
+        <v>20</v>
+      </c>
+      <c r="E54" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="B55" s="12">
@@ -968,9 +1370,15 @@
       <c r="C55" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="13"/>
+      <c r="D55" s="1">
+        <v>4</v>
+      </c>
+      <c r="E55" s="8">
+        <v>0.308</v>
+      </c>
+      <c r="F55" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="56" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="B56" s="11">
@@ -979,9 +1387,15 @@
       <c r="C56" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="3"/>
+      <c r="D56" s="2">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="57" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="B57" s="12">
@@ -990,9 +1404,15 @@
       <c r="C57" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="4"/>
+      <c r="D57" s="1">
+        <v>6</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="58" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
@@ -1002,9 +1422,15 @@
       <c r="C58" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="17"/>
+      <c r="D58" s="16">
+        <v>6</v>
+      </c>
+      <c r="E58" s="16">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="F58" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="1:6" ht="31" x14ac:dyDescent="0.35">
@@ -1040,9 +1466,15 @@
       <c r="C66" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="3"/>
+      <c r="D66" s="2">
+        <v>37</v>
+      </c>
+      <c r="E66" s="2">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="2:6" ht="21" x14ac:dyDescent="0.25">
       <c r="B67" s="12">
@@ -1051,9 +1483,15 @@
       <c r="C67" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="13"/>
+      <c r="D67" s="1">
+        <v>4</v>
+      </c>
+      <c r="E67" s="8">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="F67" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="68" spans="2:6" ht="21" x14ac:dyDescent="0.25">
       <c r="B68" s="11">
@@ -1062,9 +1500,15 @@
       <c r="C68" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="3"/>
+      <c r="D68" s="2">
+        <v>5</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="F68" s="3">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="69" spans="2:6" ht="21" x14ac:dyDescent="0.25">
       <c r="B69" s="12">
@@ -1073,9 +1517,15 @@
       <c r="C69" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="4"/>
+      <c r="D69" s="1">
+        <v>9</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="F69" s="4">
+        <v>0.44400000000000001</v>
+      </c>
     </row>
     <row r="70" spans="2:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="14">
@@ -1084,9 +1534,15 @@
       <c r="C70" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="17"/>
+      <c r="D70" s="16">
+        <v>6</v>
+      </c>
+      <c r="E70" s="16">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="F70" s="17">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1099,5 +1555,6 @@
     <mergeCell ref="B52:F52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>